--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1500808.802296487</v>
+        <v>1499511.476137371</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5932966.508100478</v>
+        <v>5932966.508100476</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1847921.546297499</v>
+        <v>1847921.546297497</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8233078.465659609</v>
+        <v>8233078.46565961</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559738</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>319.5723708118239</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -794,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531651</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="4">
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>7.978225007842297</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>370.0546560870354</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.77271496804829</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>390.8281663565642</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>92.96465700163724</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.613067659481</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>32.496412363311</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>140.4815528748744</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I17" t="n">
-        <v>80.2020947063111</v>
+        <v>29.87102979245187</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T17" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.4789175726347</v>
@@ -1940,10 +1940,10 @@
         <v>105.8468482287003</v>
       </c>
       <c r="H18" t="n">
-        <v>69.33120551494849</v>
+        <v>69.33120551494848</v>
       </c>
       <c r="I18" t="n">
-        <v>18.01521888122696</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.65448688094155</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S19" t="n">
-        <v>183.4559799036662</v>
+        <v>84.20567355723605</v>
       </c>
       <c r="T19" t="n">
-        <v>130.2104101803019</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U19" t="n">
         <v>279.9668111419812</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I20" t="n">
-        <v>80.2020947063111</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>254.4789175726347</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>76.62391866348868</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.212045867995</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>105.8468482287003</v>
       </c>
       <c r="H21" t="n">
-        <v>69.33120551494849</v>
+        <v>69.33120551494848</v>
       </c>
       <c r="I21" t="n">
-        <v>18.01521888122696</v>
+        <v>18.01521888122694</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>51.13380285456441</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.65448688094155</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>236.890456040183</v>
@@ -2298,16 +2298,16 @@
         <v>279.9668111419812</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.4914034153929</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H23" t="n">
-        <v>36.67991649299309</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I23" t="n">
-        <v>80.20209470631107</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T23" t="n">
-        <v>219.3841955395356</v>
+        <v>29.87102979245079</v>
       </c>
       <c r="U23" t="n">
         <v>254.4789175726347</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9668111419812</v>
+        <v>145.2779046664418</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.958694021054</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H26" t="n">
-        <v>36.67991649299309</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I26" t="n">
-        <v>80.20209470631107</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8037420209043</v>
+        <v>115.5673991401435</v>
       </c>
       <c r="T26" t="n">
         <v>219.3841955395356</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4789175726347</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.340798899962345</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.890456040183</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>115.6636576818355</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>130.7040301544749</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>147.1048474724541</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.5038856354681</v>
@@ -2812,7 +2812,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I29" t="n">
-        <v>80.20209470631107</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>86.10042675489875</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U31" t="n">
         <v>279.9668111419812</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>87.79943514958342</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>214.9907198883823</v>
+        <v>404.5038856354681</v>
       </c>
       <c r="H32" t="n">
-        <v>306.3951769463901</v>
+        <v>36.679916492994</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>21.98375958887003</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.13380285456441</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.890456040183</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3286,7 +3286,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I35" t="n">
-        <v>80.20209470631107</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>102.6557795069568</v>
+        <v>165.5163818121864</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>86.69656366770434</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>130.704030154474</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3556,10 +3556,10 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T38" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4789175726347</v>
+        <v>204.1478526587745</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5163818121864</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>47.27725450827231</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.4559799036662</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U40" t="n">
-        <v>171.6852306216983</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.5038856354681</v>
       </c>
       <c r="H41" t="n">
-        <v>271.4015741617542</v>
+        <v>306.3951769463901</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>130.8037420209043</v>
       </c>
       <c r="T41" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.4789175726347</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>264.5926874612111</v>
       </c>
     </row>
     <row r="42">
@@ -3906,10 +3906,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1245606644281</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>126.8372119169879</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>384.3948720900885</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>306.3951769463901</v>
       </c>
       <c r="I44" t="n">
-        <v>80.20209470631104</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8037420209043</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.3841955395356</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4789175726347</v>
+        <v>252.9480407333587</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>110.6373298491727</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5645421535798</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.65448688094153</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.890456040183</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>159.4323464186914</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.9909262762274</v>
+        <v>1280.493434973059</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944357</v>
+        <v>870.3688442863294</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279003</v>
+        <v>869.9453184197939</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>455.6051029366906</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792927</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4327,55 +4327,55 @@
         <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960208</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811267</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811267</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813778</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480104</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480104</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480104</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221063</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480573</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522227</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522227</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003128</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4403,52 +4403,52 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.5136770093619</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960208</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960208</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960208</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960208</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959276</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634689</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129795</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.40981679612</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480104</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480104</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594412</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781421</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960208</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.8476350348126</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
         <v>210.3999627570506</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1477.832450786617</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1477.832450786617</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>1477.832450786617</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>1239.4885886463</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>1014.752890035065</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
+        <v>690.384199457534</v>
+      </c>
+      <c r="M6" t="n">
         <v>1207.227134123859</v>
       </c>
-      <c r="M6" t="n">
-        <v>1571.411346813777</v>
-      </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1493.615785313029</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1307.22401719294</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1307.22401719294</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1024.425869739064</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1024.425869739064</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1024.425869739064</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>786.0820075987471</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>561.3463089875117</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.286950919918</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C8" t="n">
-        <v>648.1623602331882</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>243.6984303262487</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
         <v>149.794736385201</v>
@@ -4813,16 +4813,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>561.3781859534525</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.9926484891412</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="C10" t="n">
-        <v>489.9926484891412</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>956.7620193743113</v>
+        <v>1436.201287644916</v>
       </c>
       <c r="W10" t="n">
-        <v>677.6923548831857</v>
+        <v>1157.13162315379</v>
       </c>
       <c r="X10" t="n">
-        <v>677.6923548831857</v>
+        <v>918.7877610134732</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.6923548831857</v>
+        <v>694.0520624022379</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5238,13 +5238,13 @@
         <v>826.4099627738212</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5305,19 +5305,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
         <v>2950.128063027995</v>
@@ -5363,16 +5363,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
         <v>1760.328909494509</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5475,13 +5475,13 @@
         <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>242.8511528851661</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2273.199023788485</v>
+        <v>2494.79922130317</v>
       </c>
       <c r="C17" t="n">
-        <v>1863.074433101755</v>
+        <v>2084.67463061644</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.610503194815</v>
+        <v>1680.210700709501</v>
       </c>
       <c r="E17" t="n">
-        <v>1316.709944735346</v>
+        <v>1265.870485226398</v>
       </c>
       <c r="F17" t="n">
-        <v>895.679532689034</v>
+        <v>844.8400731800853</v>
       </c>
       <c r="G17" t="n">
-        <v>487.0897492188641</v>
+        <v>436.2502897099154</v>
       </c>
       <c r="H17" t="n">
-        <v>177.5996714952378</v>
+        <v>126.7602119862891</v>
       </c>
       <c r="I17" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J17" t="n">
-        <v>362.2940686653944</v>
+        <v>362.2940686653947</v>
       </c>
       <c r="K17" t="n">
-        <v>917.7207759499371</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L17" t="n">
         <v>1651.733671893702</v>
@@ -5530,37 +5530,37 @@
         <v>3229.290047365233</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.792320580213</v>
+        <v>3895.792320580214</v>
       </c>
       <c r="P17" t="n">
-        <v>4444.469243587422</v>
+        <v>4444.469243587424</v>
       </c>
       <c r="Q17" t="n">
-        <v>4780.289126484126</v>
+        <v>4780.289126484127</v>
       </c>
       <c r="R17" t="n">
-        <v>4829.372731008802</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S17" t="n">
-        <v>4697.247739068495</v>
+        <v>4697.247739068498</v>
       </c>
       <c r="T17" t="n">
-        <v>4475.647541553813</v>
+        <v>4697.247739068498</v>
       </c>
       <c r="U17" t="n">
-        <v>4218.598129864283</v>
+        <v>4440.198327378968</v>
       </c>
       <c r="V17" t="n">
-        <v>3868.760575200763</v>
+        <v>4090.360772715449</v>
       </c>
       <c r="W17" t="n">
-        <v>3485.000274335932</v>
+        <v>3706.600471850617</v>
       </c>
       <c r="X17" t="n">
-        <v>3084.356876504884</v>
+        <v>3305.95707401957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2683.420203452974</v>
+        <v>2905.02040096766</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I18" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J18" t="n">
-        <v>296.2622257742188</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K18" t="n">
-        <v>296.2622257742188</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L18" t="n">
-        <v>973.1202798875893</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M18" t="n">
-        <v>1023.633372730344</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="N18" t="n">
-        <v>1023.633372730344</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="O18" t="n">
-        <v>1744.87091574331</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P18" t="n">
         <v>1744.87091574331</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>591.8065976249583</v>
+        <v>256.0820992972661</v>
       </c>
       <c r="C19" t="n">
-        <v>420.7132251866748</v>
+        <v>256.0820992972661</v>
       </c>
       <c r="D19" t="n">
-        <v>261.2185805095848</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="E19" t="n">
-        <v>261.2185805095848</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="F19" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="G19" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="H19" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I19" t="n">
-        <v>96.58745462017605</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J19" t="n">
-        <v>114.9749480947149</v>
+        <v>114.974948094715</v>
       </c>
       <c r="K19" t="n">
-        <v>276.6016213494225</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L19" t="n">
-        <v>545.5514482991238</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M19" t="n">
-        <v>844.3603357268137</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N19" t="n">
-        <v>1134.516994361131</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O19" t="n">
         <v>1402.68417153728</v>
       </c>
       <c r="P19" t="n">
-        <v>1615.724016557156</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q19" t="n">
-        <v>1686.350778495784</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R19" t="n">
         <v>1603.871498818066</v>
       </c>
       <c r="S19" t="n">
-        <v>1418.562428208302</v>
+        <v>1518.815262901666</v>
       </c>
       <c r="T19" t="n">
-        <v>1287.036761359512</v>
+        <v>1279.531973972188</v>
       </c>
       <c r="U19" t="n">
-        <v>1004.242002630238</v>
+        <v>996.7372152429143</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.242002630238</v>
+        <v>722.8514701824362</v>
       </c>
       <c r="W19" t="n">
-        <v>1004.242002630238</v>
+        <v>443.7818056913105</v>
       </c>
       <c r="X19" t="n">
-        <v>1004.242002630238</v>
+        <v>443.7818056913105</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.5063040190026</v>
+        <v>443.7818056913105</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J20" t="n">
-        <v>362.2940686653956</v>
+        <v>362.2940686653947</v>
       </c>
       <c r="K20" t="n">
-        <v>917.7207759499379</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L20" t="n">
         <v>1651.733671893703</v>
@@ -5773,7 +5773,7 @@
         <v>4444.469243587424</v>
       </c>
       <c r="Q20" t="n">
-        <v>4780.289126484127</v>
+        <v>4780.289126484126</v>
       </c>
       <c r="R20" t="n">
         <v>4829.372731008804</v>
@@ -5788,13 +5788,13 @@
         <v>4218.598129864285</v>
       </c>
       <c r="V20" t="n">
-        <v>3868.760575200765</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.000274335934</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X20" t="n">
-        <v>3084.356876504886</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.859860476608</v>
@@ -5831,22 +5831,22 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J21" t="n">
-        <v>296.2622257742188</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K21" t="n">
-        <v>763.7965853167527</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L21" t="n">
-        <v>1440.654639430123</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M21" t="n">
-        <v>1778.939847333784</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N21" t="n">
-        <v>1778.939847333784</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O21" t="n">
-        <v>1778.939847333784</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P21" t="n">
         <v>1778.939847333784</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>588.08628686723</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C22" t="n">
-        <v>416.9929144289466</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D22" t="n">
-        <v>257.4982697518566</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E22" t="n">
         <v>96.58745462017609</v>
@@ -5913,49 +5913,49 @@
         <v>114.974948094715</v>
       </c>
       <c r="K22" t="n">
-        <v>276.6016213494225</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L22" t="n">
-        <v>545.5514482991238</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M22" t="n">
-        <v>844.3603357268137</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N22" t="n">
-        <v>1134.516994361131</v>
+        <v>1134.516994361132</v>
       </c>
       <c r="O22" t="n">
         <v>1402.68417153728</v>
       </c>
       <c r="P22" t="n">
-        <v>1615.724016557156</v>
+        <v>1615.724016557157</v>
       </c>
       <c r="Q22" t="n">
-        <v>1686.350778495784</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="R22" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S22" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T22" t="n">
-        <v>1179.279139278824</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U22" t="n">
-        <v>896.48438054955</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V22" t="n">
-        <v>896.48438054955</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W22" t="n">
-        <v>896.48438054955</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X22" t="n">
-        <v>896.48438054955</v>
+        <v>372.9734591451128</v>
       </c>
       <c r="Y22" t="n">
-        <v>775.7859932612744</v>
+        <v>148.2377605338775</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2273.199023788486</v>
+        <v>2464.626463937057</v>
       </c>
       <c r="C23" t="n">
-        <v>1863.074433101756</v>
+        <v>2054.501873250328</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.610503194816</v>
+        <v>1650.037943343388</v>
       </c>
       <c r="E23" t="n">
-        <v>1044.270287711713</v>
+        <v>1235.697727860285</v>
       </c>
       <c r="F23" t="n">
-        <v>623.2398756654006</v>
+        <v>814.6673158139722</v>
       </c>
       <c r="G23" t="n">
-        <v>214.6500921952308</v>
+        <v>406.0775323438024</v>
       </c>
       <c r="H23" t="n">
-        <v>177.5996714952378</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I23" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J23" t="n">
         <v>362.2940686653947</v>
@@ -6004,37 +6004,37 @@
         <v>3229.290047365233</v>
       </c>
       <c r="O23" t="n">
-        <v>3895.792320580213</v>
+        <v>3895.792320580214</v>
       </c>
       <c r="P23" t="n">
-        <v>4444.469243587423</v>
+        <v>4444.469243587424</v>
       </c>
       <c r="Q23" t="n">
         <v>4780.289126484126</v>
       </c>
       <c r="R23" t="n">
-        <v>4829.372731008803</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="S23" t="n">
-        <v>4697.247739068496</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="T23" t="n">
-        <v>4475.647541553813</v>
+        <v>4667.074981702385</v>
       </c>
       <c r="U23" t="n">
-        <v>4218.598129864284</v>
+        <v>4410.025570012855</v>
       </c>
       <c r="V23" t="n">
-        <v>3868.760575200764</v>
+        <v>4060.188015349336</v>
       </c>
       <c r="W23" t="n">
-        <v>3485.000274335933</v>
+        <v>3676.427714484505</v>
       </c>
       <c r="X23" t="n">
-        <v>3084.356876504885</v>
+        <v>3275.784316653457</v>
       </c>
       <c r="Y23" t="n">
-        <v>2683.420203452975</v>
+        <v>2874.847643601547</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I24" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J24" t="n">
-        <v>96.58745462017608</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K24" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L24" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M24" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N24" t="n">
-        <v>841.2429070265349</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O24" t="n">
-        <v>1562.480450039501</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P24" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q24" t="n">
         <v>2138.055429104457</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.082099297266</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="C25" t="n">
-        <v>256.082099297266</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="D25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="E25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="F25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="G25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="H25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="I25" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J25" t="n">
         <v>114.974948094715</v>
       </c>
       <c r="K25" t="n">
-        <v>276.6016213494226</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L25" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M25" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N25" t="n">
         <v>1134.516994361132</v>
@@ -6171,28 +6171,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R25" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S25" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T25" t="n">
-        <v>1418.562428208302</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U25" t="n">
-        <v>1135.767669479028</v>
+        <v>1300.322131317376</v>
       </c>
       <c r="V25" t="n">
-        <v>861.8819244185502</v>
+        <v>1026.436386256898</v>
       </c>
       <c r="W25" t="n">
-        <v>861.8819244185502</v>
+        <v>747.3667217657724</v>
       </c>
       <c r="X25" t="n">
-        <v>623.5380622782336</v>
+        <v>509.0228596254558</v>
       </c>
       <c r="Y25" t="n">
-        <v>443.7818056913104</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2273.199023788486</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C26" t="n">
-        <v>1863.074433101756</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.610503194816</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E26" t="n">
-        <v>1044.270287711713</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F26" t="n">
-        <v>623.2398756654006</v>
+        <v>895.679532689034</v>
       </c>
       <c r="G26" t="n">
-        <v>214.6500921952308</v>
+        <v>487.0897492188641</v>
       </c>
       <c r="H26" t="n">
         <v>177.5996714952378</v>
       </c>
       <c r="I26" t="n">
-        <v>96.58745462017608</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J26" t="n">
         <v>362.2940686653947</v>
       </c>
       <c r="K26" t="n">
-        <v>917.7207759499374</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L26" t="n">
-        <v>1651.733671893703</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M26" t="n">
-        <v>2451.887804812203</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N26" t="n">
         <v>3229.290047365233</v>
@@ -6247,31 +6247,31 @@
         <v>4444.469243587424</v>
       </c>
       <c r="Q26" t="n">
-        <v>4780.289126484126</v>
+        <v>4780.289126484127</v>
       </c>
       <c r="R26" t="n">
-        <v>4829.372731008803</v>
+        <v>4829.372731008805</v>
       </c>
       <c r="S26" t="n">
-        <v>4697.247739068496</v>
+        <v>4712.6379844026</v>
       </c>
       <c r="T26" t="n">
-        <v>4475.647541553813</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="U26" t="n">
-        <v>4218.598129864284</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="V26" t="n">
-        <v>3868.760575200764</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W26" t="n">
-        <v>3485.000274335933</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X26" t="n">
-        <v>3084.356876504885</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y26" t="n">
-        <v>2683.420203452975</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I27" t="n">
-        <v>96.58745462017608</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J27" t="n">
-        <v>96.58745462017608</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K27" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L27" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M27" t="n">
-        <v>96.58745462017608</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N27" t="n">
-        <v>448.0583936653876</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O27" t="n">
-        <v>1169.295936678354</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P27" t="n">
-        <v>1744.87091574331</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q27" t="n">
-        <v>2103.986497513983</v>
+        <v>2138.055429104457</v>
       </c>
       <c r="R27" t="n">
         <v>2138.055429104457</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>379.0708539181082</v>
+        <v>588.0862868672301</v>
       </c>
       <c r="C28" t="n">
-        <v>379.0708539181082</v>
+        <v>416.9929144289466</v>
       </c>
       <c r="D28" t="n">
-        <v>379.0708539181082</v>
+        <v>257.4982697518566</v>
       </c>
       <c r="E28" t="n">
-        <v>379.0708539181082</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="F28" t="n">
-        <v>214.4397280286994</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="G28" t="n">
-        <v>214.4397280286994</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="H28" t="n">
-        <v>211.0651836853031</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="I28" t="n">
-        <v>96.58745462017608</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="J28" t="n">
         <v>114.974948094715</v>
       </c>
       <c r="K28" t="n">
-        <v>276.6016213494226</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L28" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M28" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N28" t="n">
         <v>1134.516994361132</v>
@@ -6408,28 +6408,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R28" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S28" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T28" t="n">
-        <v>1179.279139278824</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U28" t="n">
-        <v>896.4843805495505</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="V28" t="n">
-        <v>896.4843805495505</v>
+        <v>1330.235512109908</v>
       </c>
       <c r="W28" t="n">
-        <v>617.4147160584248</v>
+        <v>1051.165847618782</v>
       </c>
       <c r="X28" t="n">
-        <v>379.0708539181082</v>
+        <v>812.8219854784654</v>
       </c>
       <c r="Y28" t="n">
-        <v>379.0708539181082</v>
+        <v>588.0862868672301</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1863.074433101758</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.610503194818</v>
+        <v>1731.05016021845</v>
       </c>
       <c r="E29" t="n">
-        <v>1044.270287711715</v>
+        <v>1316.709944735346</v>
       </c>
       <c r="F29" t="n">
         <v>895.679532689034</v>
@@ -6463,25 +6463,25 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J29" t="n">
-        <v>362.2940686653956</v>
+        <v>362.2940686653947</v>
       </c>
       <c r="K29" t="n">
-        <v>917.7207759499383</v>
+        <v>917.7207759499374</v>
       </c>
       <c r="L29" t="n">
-        <v>1651.733671893704</v>
+        <v>1651.733671893702</v>
       </c>
       <c r="M29" t="n">
-        <v>2451.887804812204</v>
+        <v>2451.887804812202</v>
       </c>
       <c r="N29" t="n">
-        <v>3229.290047365234</v>
+        <v>3229.290047365233</v>
       </c>
       <c r="O29" t="n">
-        <v>3895.792320580215</v>
+        <v>3895.792320580214</v>
       </c>
       <c r="P29" t="n">
-        <v>4444.469243587425</v>
+        <v>4444.469243587424</v>
       </c>
       <c r="Q29" t="n">
         <v>4780.289126484127</v>
@@ -6542,19 +6542,19 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J30" t="n">
-        <v>96.5874546201761</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K30" t="n">
-        <v>448.0583936653876</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L30" t="n">
-        <v>448.0583936653876</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M30" t="n">
-        <v>448.0583936653876</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N30" t="n">
-        <v>448.0583936653876</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O30" t="n">
         <v>1169.295936678354</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>344.4683977871079</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="C31" t="n">
-        <v>257.4982697518566</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="D31" t="n">
-        <v>257.4982697518566</v>
+        <v>96.5874546201761</v>
       </c>
       <c r="E31" t="n">
         <v>96.5874546201761</v>
@@ -6627,10 +6627,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L31" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M31" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N31" t="n">
         <v>1134.516994361132</v>
@@ -6645,28 +6645,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R31" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S31" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T31" t="n">
-        <v>1418.562428208302</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U31" t="n">
-        <v>1135.767669479028</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V31" t="n">
-        <v>861.8819244185502</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W31" t="n">
-        <v>582.8122599274245</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X31" t="n">
-        <v>344.4683977871079</v>
+        <v>372.9734591451128</v>
       </c>
       <c r="Y31" t="n">
-        <v>344.4683977871079</v>
+        <v>284.2871610142205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2273.199023788486</v>
+        <v>2273.199023788487</v>
       </c>
       <c r="C32" t="n">
-        <v>1863.074433101756</v>
+        <v>1863.074433101757</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.610503194816</v>
+        <v>1458.610503194817</v>
       </c>
       <c r="E32" t="n">
-        <v>1044.270287711713</v>
+        <v>1044.270287711714</v>
       </c>
       <c r="F32" t="n">
-        <v>623.2398756654006</v>
+        <v>623.2398756654015</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0775323438024</v>
+        <v>214.6500921952317</v>
       </c>
       <c r="H32" t="n">
-        <v>96.58745462017608</v>
+        <v>177.5996714952378</v>
       </c>
       <c r="I32" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J32" t="n">
-        <v>362.2940686653947</v>
+        <v>362.2940686653942</v>
       </c>
       <c r="K32" t="n">
-        <v>917.7207759499374</v>
+        <v>917.720775949937</v>
       </c>
       <c r="L32" t="n">
         <v>1651.733671893702</v>
@@ -6718,34 +6718,34 @@
         <v>3895.792320580214</v>
       </c>
       <c r="P32" t="n">
-        <v>4444.469243587423</v>
+        <v>4444.469243587424</v>
       </c>
       <c r="Q32" t="n">
         <v>4780.289126484126</v>
       </c>
       <c r="R32" t="n">
-        <v>4829.372731008803</v>
+        <v>4829.372731008804</v>
       </c>
       <c r="S32" t="n">
-        <v>4697.247739068496</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="T32" t="n">
-        <v>4475.647541553813</v>
+        <v>4475.647541553814</v>
       </c>
       <c r="U32" t="n">
-        <v>4218.598129864284</v>
+        <v>4218.598129864285</v>
       </c>
       <c r="V32" t="n">
-        <v>3868.760575200764</v>
+        <v>3868.760575200765</v>
       </c>
       <c r="W32" t="n">
-        <v>3485.000274335933</v>
+        <v>3485.000274335934</v>
       </c>
       <c r="X32" t="n">
-        <v>3084.356876504885</v>
+        <v>3084.356876504886</v>
       </c>
       <c r="Y32" t="n">
-        <v>2683.420203452975</v>
+        <v>2683.420203452976</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.7846454092942</v>
       </c>
       <c r="I33" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J33" t="n">
-        <v>96.58745462017608</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K33" t="n">
-        <v>162.2535833325722</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L33" t="n">
-        <v>162.2535833325722</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M33" t="n">
-        <v>1023.633372730343</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N33" t="n">
-        <v>1023.633372730343</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O33" t="n">
-        <v>1744.87091574331</v>
+        <v>1169.295936678354</v>
       </c>
       <c r="P33" t="n">
         <v>1744.87091574331</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.7932723867115</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="C34" t="n">
-        <v>118.7932723867115</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="D34" t="n">
-        <v>118.7932723867115</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="E34" t="n">
-        <v>118.7932723867115</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="F34" t="n">
-        <v>96.58745462017608</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="G34" t="n">
-        <v>96.58745462017608</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="H34" t="n">
-        <v>96.58745462017608</v>
+        <v>148.2377605338775</v>
       </c>
       <c r="I34" t="n">
-        <v>96.58745462017608</v>
+        <v>96.58745462017609</v>
       </c>
       <c r="J34" t="n">
         <v>114.974948094715</v>
       </c>
       <c r="K34" t="n">
-        <v>276.6016213494226</v>
+        <v>276.6016213494227</v>
       </c>
       <c r="L34" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M34" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N34" t="n">
         <v>1134.516994361132</v>
@@ -6882,28 +6882,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R34" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S34" t="n">
-        <v>1418.562428208302</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="T34" t="n">
-        <v>1179.279139278824</v>
+        <v>1447.067489566307</v>
       </c>
       <c r="U34" t="n">
-        <v>896.4843805495505</v>
+        <v>1164.272730837033</v>
       </c>
       <c r="V34" t="n">
-        <v>622.5986354890724</v>
+        <v>890.3869857765551</v>
       </c>
       <c r="W34" t="n">
-        <v>343.5289709979468</v>
+        <v>611.3173212854294</v>
       </c>
       <c r="X34" t="n">
-        <v>343.5289709979468</v>
+        <v>372.9734591451128</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.7932723867115</v>
+        <v>148.2377605338775</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>96.5874546201761</v>
       </c>
       <c r="J35" t="n">
-        <v>362.2940686653952</v>
+        <v>362.2940686653949</v>
       </c>
       <c r="K35" t="n">
-        <v>917.7207759499383</v>
+        <v>917.7207759499379</v>
       </c>
       <c r="L35" t="n">
-        <v>1651.733671893704</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M35" t="n">
-        <v>2451.887804812204</v>
+        <v>2451.887804812203</v>
       </c>
       <c r="N35" t="n">
         <v>3229.290047365234</v>
@@ -7019,22 +7019,22 @@
         <v>296.2622257742189</v>
       </c>
       <c r="K36" t="n">
-        <v>739.9598319781203</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L36" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M36" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="N36" t="n">
-        <v>1416.817886091491</v>
+        <v>763.796585316753</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.055429104457</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P36" t="n">
-        <v>2138.055429104457</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q36" t="n">
         <v>2138.055429104457</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.2801611928598</v>
+        <v>587.9014896434288</v>
       </c>
       <c r="C37" t="n">
-        <v>200.2801611928598</v>
+        <v>587.9014896434288</v>
       </c>
       <c r="D37" t="n">
-        <v>200.2801611928598</v>
+        <v>428.4068449663388</v>
       </c>
       <c r="E37" t="n">
-        <v>200.2801611928598</v>
+        <v>428.4068449663388</v>
       </c>
       <c r="F37" t="n">
-        <v>200.2801611928598</v>
+        <v>263.7757190769301</v>
       </c>
       <c r="G37" t="n">
         <v>96.5874546201761</v>
@@ -7101,10 +7101,10 @@
         <v>276.6016213494227</v>
       </c>
       <c r="L37" t="n">
-        <v>545.5514482991239</v>
+        <v>545.551448299124</v>
       </c>
       <c r="M37" t="n">
-        <v>844.3603357268139</v>
+        <v>844.360335726814</v>
       </c>
       <c r="N37" t="n">
         <v>1134.516994361132</v>
@@ -7131,16 +7131,16 @@
         <v>1179.279139278824</v>
       </c>
       <c r="V37" t="n">
-        <v>905.3933942183464</v>
+        <v>1091.70685274579</v>
       </c>
       <c r="W37" t="n">
-        <v>626.3237297272208</v>
+        <v>812.6371882546641</v>
       </c>
       <c r="X37" t="n">
-        <v>387.9798675869042</v>
+        <v>812.6371882546641</v>
       </c>
       <c r="Y37" t="n">
-        <v>387.9798675869042</v>
+        <v>587.9014896434288</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2273.199023788487</v>
+        <v>2545.638680812119</v>
       </c>
       <c r="C38" t="n">
-        <v>1863.074433101757</v>
+        <v>2135.514090125389</v>
       </c>
       <c r="D38" t="n">
         <v>1731.05016021845</v>
@@ -7180,10 +7180,10 @@
         <v>917.7207759499374</v>
       </c>
       <c r="L38" t="n">
-        <v>1651.733671893702</v>
+        <v>1651.733671893703</v>
       </c>
       <c r="M38" t="n">
-        <v>2451.887804812202</v>
+        <v>2451.887804812203</v>
       </c>
       <c r="N38" t="n">
         <v>3229.290047365233</v>
@@ -7204,22 +7204,22 @@
         <v>4697.247739068497</v>
       </c>
       <c r="T38" t="n">
-        <v>4475.647541553814</v>
+        <v>4697.247739068497</v>
       </c>
       <c r="U38" t="n">
-        <v>4218.598129864285</v>
+        <v>4491.037786887917</v>
       </c>
       <c r="V38" t="n">
-        <v>3868.760575200765</v>
+        <v>4141.200232224397</v>
       </c>
       <c r="W38" t="n">
-        <v>3485.000274335934</v>
+        <v>3757.439931359566</v>
       </c>
       <c r="X38" t="n">
-        <v>3084.356876504886</v>
+        <v>3356.796533528518</v>
       </c>
       <c r="Y38" t="n">
-        <v>2683.420203452976</v>
+        <v>2955.859860476608</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>96.58745462017609</v>
       </c>
       <c r="J39" t="n">
-        <v>96.58745462017609</v>
+        <v>296.2622257742189</v>
       </c>
       <c r="K39" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="L39" t="n">
-        <v>96.58745462017609</v>
+        <v>763.796585316753</v>
       </c>
       <c r="M39" t="n">
-        <v>131.0855069751159</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="N39" t="n">
-        <v>1023.633372730343</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="O39" t="n">
-        <v>1744.87091574331</v>
+        <v>1203.364868268828</v>
       </c>
       <c r="P39" t="n">
-        <v>1744.87091574331</v>
+        <v>1778.939847333784</v>
       </c>
       <c r="Q39" t="n">
-        <v>2103.986497513983</v>
+        <v>2138.055429104457</v>
       </c>
       <c r="R39" t="n">
         <v>2138.055429104457</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>594.3637361923036</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="C40" t="n">
-        <v>423.27036375402</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="D40" t="n">
-        <v>263.77571907693</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="E40" t="n">
-        <v>263.77571907693</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="F40" t="n">
-        <v>263.77571907693</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="G40" t="n">
-        <v>96.58745462017609</v>
+        <v>258.8199862189115</v>
       </c>
       <c r="H40" t="n">
-        <v>96.58745462017609</v>
+        <v>211.0651836853031</v>
       </c>
       <c r="I40" t="n">
         <v>96.58745462017609</v>
@@ -7356,28 +7356,28 @@
         <v>1686.350778495785</v>
       </c>
       <c r="R40" t="n">
-        <v>1603.871498818066</v>
+        <v>1686.350778495785</v>
       </c>
       <c r="S40" t="n">
-        <v>1418.562428208302</v>
+        <v>1501.041707886021</v>
       </c>
       <c r="T40" t="n">
-        <v>1418.562428208302</v>
+        <v>1261.758418956543</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.1430033379</v>
+        <v>978.9636602272692</v>
       </c>
       <c r="V40" t="n">
-        <v>1245.1430033379</v>
+        <v>705.0779151667912</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.1430033379</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="X40" t="n">
-        <v>1006.799141197583</v>
+        <v>426.0082506756655</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0634425863479</v>
+        <v>426.0082506756655</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2506.947850362732</v>
+        <v>2461.282707007504</v>
       </c>
       <c r="C41" t="n">
-        <v>2096.823259676002</v>
+        <v>2051.158116320774</v>
       </c>
       <c r="D41" t="n">
-        <v>1692.359329769062</v>
+        <v>1646.694186413835</v>
       </c>
       <c r="E41" t="n">
-        <v>1278.019114285959</v>
+        <v>1232.353970930731</v>
       </c>
       <c r="F41" t="n">
-        <v>856.9887022396465</v>
+        <v>811.3235588844188</v>
       </c>
       <c r="G41" t="n">
-        <v>448.3989187694767</v>
+        <v>402.7337754142491</v>
       </c>
       <c r="H41" t="n">
-        <v>174.2559145656845</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J41" t="n">
-        <v>358.9503117358414</v>
+        <v>358.9503117358413</v>
       </c>
       <c r="K41" t="n">
         <v>914.3770190203841</v>
@@ -7420,43 +7420,43 @@
         <v>1648.389914964149</v>
       </c>
       <c r="M41" t="n">
-        <v>2448.544047882649</v>
+        <v>2284.699958334536</v>
       </c>
       <c r="N41" t="n">
-        <v>3225.94629043568</v>
+        <v>3062.102200887567</v>
       </c>
       <c r="O41" t="n">
-        <v>3892.448563650661</v>
+        <v>3728.604474102548</v>
       </c>
       <c r="P41" t="n">
-        <v>4441.125486657871</v>
+        <v>4277.281397109758</v>
       </c>
       <c r="Q41" t="n">
-        <v>4613.101280006462</v>
+        <v>4613.101280006461</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S41" t="n">
-        <v>4530.059892590833</v>
+        <v>4530.059892590832</v>
       </c>
       <c r="T41" t="n">
-        <v>4308.45969507615</v>
+        <v>4530.059892590832</v>
       </c>
       <c r="U41" t="n">
-        <v>4051.41028338662</v>
+        <v>4273.010480901302</v>
       </c>
       <c r="V41" t="n">
-        <v>3701.5727287231</v>
+        <v>3923.172926237783</v>
       </c>
       <c r="W41" t="n">
-        <v>3317.812427858269</v>
+        <v>3539.412625372951</v>
       </c>
       <c r="X41" t="n">
-        <v>2917.169030027221</v>
+        <v>3138.769227541904</v>
       </c>
       <c r="Y41" t="n">
-        <v>2917.169030027221</v>
+        <v>2871.503886671993</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.4408884797409</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>292.9184688446655</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="L42" t="n">
-        <v>770.1017518039934</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1017518039934</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="N42" t="n">
-        <v>1559.136693109948</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="O42" t="n">
-        <v>1559.136693109948</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="P42" t="n">
-        <v>2134.711672174903</v>
+        <v>1775.59609040423</v>
       </c>
       <c r="Q42" t="n">
         <v>2134.711672174903</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3231.916205332621</v>
+        <v>578.280283388802</v>
       </c>
       <c r="C43" t="n">
-        <v>3231.916205332621</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>3072.421560655531</v>
+        <v>418.785638711712</v>
       </c>
       <c r="E43" t="n">
-        <v>3072.421560655531</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>3072.421560655531</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G43" t="n">
-        <v>3072.421560655531</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H43" t="n">
-        <v>3072.421560655531</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I43" t="n">
-        <v>3072.421560655531</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J43" t="n">
-        <v>3090.80905413007</v>
+        <v>111.6311911651617</v>
       </c>
       <c r="K43" t="n">
-        <v>3252.435727384778</v>
+        <v>273.2578644198693</v>
       </c>
       <c r="L43" t="n">
-        <v>3521.385554334479</v>
+        <v>542.2076913695707</v>
       </c>
       <c r="M43" t="n">
-        <v>3820.194441762169</v>
+        <v>841.0165787972608</v>
       </c>
       <c r="N43" t="n">
-        <v>4110.351100396487</v>
+        <v>1131.173237431578</v>
       </c>
       <c r="O43" t="n">
-        <v>4378.518277572635</v>
+        <v>1399.340414607727</v>
       </c>
       <c r="P43" t="n">
-        <v>4591.558122592512</v>
+        <v>1612.380259627603</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="T43" t="n">
-        <v>4530.745934365051</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="U43" t="n">
-        <v>4247.951175635777</v>
+        <v>1497.697950956468</v>
       </c>
       <c r="V43" t="n">
-        <v>3974.065430575299</v>
+        <v>1223.81220589599</v>
       </c>
       <c r="W43" t="n">
-        <v>3694.995766084173</v>
+        <v>944.7425414048639</v>
       </c>
       <c r="X43" t="n">
-        <v>3456.651903943856</v>
+        <v>706.3986792645474</v>
       </c>
       <c r="Y43" t="n">
-        <v>3231.916205332621</v>
+        <v>578.280283388802</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2516.232356975309</v>
+        <v>2461.282707007504</v>
       </c>
       <c r="C44" t="n">
-        <v>2106.10776628858</v>
+        <v>2051.158116320774</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.64383638164</v>
+        <v>1646.694186413835</v>
       </c>
       <c r="E44" t="n">
-        <v>1313.366187805793</v>
+        <v>1232.353970930731</v>
       </c>
       <c r="F44" t="n">
-        <v>892.3357757594806</v>
+        <v>811.3235588844188</v>
       </c>
       <c r="G44" t="n">
-        <v>483.7459922893107</v>
+        <v>402.7337754142491</v>
       </c>
       <c r="H44" t="n">
-        <v>174.2559145656844</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062275</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J44" t="n">
         <v>358.9503117358413</v>
@@ -7663,37 +7663,37 @@
         <v>3225.94629043568</v>
       </c>
       <c r="O44" t="n">
-        <v>3892.448563650661</v>
+        <v>3777.688078627226</v>
       </c>
       <c r="P44" t="n">
-        <v>4441.125486657871</v>
+        <v>4326.365001634435</v>
       </c>
       <c r="Q44" t="n">
-        <v>4613.10128000646</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="R44" t="n">
-        <v>4662.184884531138</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S44" t="n">
-        <v>4530.059892590831</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="T44" t="n">
-        <v>4308.459695076148</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="U44" t="n">
-        <v>4051.410283386618</v>
+        <v>4406.681813083302</v>
       </c>
       <c r="V44" t="n">
-        <v>3701.572728723098</v>
+        <v>4056.844258419782</v>
       </c>
       <c r="W44" t="n">
-        <v>3317.812427858267</v>
+        <v>3673.083957554951</v>
       </c>
       <c r="X44" t="n">
-        <v>2917.169030027219</v>
+        <v>3272.440559723903</v>
       </c>
       <c r="Y44" t="n">
-        <v>2516.232356975309</v>
+        <v>2871.503886671993</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>768.7333423705588</v>
       </c>
       <c r="C45" t="n">
-        <v>634.7382711195045</v>
+        <v>634.7382711195046</v>
       </c>
       <c r="D45" t="n">
-        <v>517.8411133388969</v>
+        <v>517.841113338897</v>
       </c>
       <c r="E45" t="n">
-        <v>397.3482973312249</v>
+        <v>397.348297331225</v>
       </c>
       <c r="F45" t="n">
-        <v>288.3884175137295</v>
+        <v>288.3884175137296</v>
       </c>
       <c r="G45" t="n">
-        <v>181.472409201911</v>
+        <v>181.4724092019111</v>
       </c>
       <c r="H45" t="n">
         <v>111.4408884797409</v>
       </c>
       <c r="I45" t="n">
-        <v>93.24369769062275</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J45" t="n">
         <v>292.9184688446655</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4738286637617</v>
+        <v>760.4528283871996</v>
       </c>
       <c r="L45" t="n">
-        <v>1273.331882777132</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="M45" t="n">
-        <v>2134.711672174903</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="N45" t="n">
-        <v>2134.711672174903</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.711672174903</v>
+        <v>1200.021111339275</v>
       </c>
       <c r="P45" t="n">
-        <v>2134.711672174903</v>
+        <v>1775.59609040423</v>
       </c>
       <c r="Q45" t="n">
         <v>2134.711672174903</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3495.44902748217</v>
+        <v>369.6297022155595</v>
       </c>
       <c r="C46" t="n">
-        <v>3495.44902748217</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D46" t="n">
-        <v>3335.95438280508</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E46" t="n">
-        <v>3335.95438280508</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
-        <v>3335.95438280508</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G46" t="n">
-        <v>3335.95438280508</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H46" t="n">
-        <v>3186.899289720656</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I46" t="n">
-        <v>3072.421560655529</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J46" t="n">
-        <v>3090.809054130068</v>
+        <v>111.6311911651617</v>
       </c>
       <c r="K46" t="n">
-        <v>3252.435727384776</v>
+        <v>273.2578644198693</v>
       </c>
       <c r="L46" t="n">
-        <v>3521.385554334477</v>
+        <v>542.2076913695707</v>
       </c>
       <c r="M46" t="n">
-        <v>3820.194441762167</v>
+        <v>841.0165787972608</v>
       </c>
       <c r="N46" t="n">
-        <v>4110.351100396485</v>
+        <v>1131.173237431578</v>
       </c>
       <c r="O46" t="n">
-        <v>4378.518277572633</v>
+        <v>1399.340414607727</v>
       </c>
       <c r="P46" t="n">
-        <v>4591.55812259251</v>
+        <v>1612.380259627603</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.184884531138</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="R46" t="n">
-        <v>4579.70560485342</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="S46" t="n">
-        <v>4394.396534243656</v>
+        <v>1683.007021566232</v>
       </c>
       <c r="T46" t="n">
-        <v>4155.113245314178</v>
+        <v>1443.723732636754</v>
       </c>
       <c r="U46" t="n">
-        <v>4155.113245314178</v>
+        <v>1160.92897390748</v>
       </c>
       <c r="V46" t="n">
-        <v>3881.2275002537</v>
+        <v>887.0432288470017</v>
       </c>
       <c r="W46" t="n">
-        <v>3720.184726093406</v>
+        <v>607.9735643558761</v>
       </c>
       <c r="X46" t="n">
-        <v>3720.184726093406</v>
+        <v>369.6297022155595</v>
       </c>
       <c r="Y46" t="n">
-        <v>3495.44902748217</v>
+        <v>369.6297022155595</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595826</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266452</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.253345995809</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.71293365091</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084433</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175291</v>
+        <v>559.8834573428707</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700259</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728296</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393445</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,19 +8461,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764446</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8777,16 +8777,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9011,19 +9011,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9245,22 +9245,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>43.97921381771116</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M18" t="n">
-        <v>89.99901519250821</v>
+        <v>448.5709934943731</v>
       </c>
       <c r="N18" t="n">
-        <v>34.11281395576063</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800828</v>
       </c>
       <c r="P18" t="n">
-        <v>40.25045664277776</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9485,25 +9485,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M21" t="n">
-        <v>380.6779192944338</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N21" t="n">
-        <v>34.11281395576063</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O21" t="n">
-        <v>40.29647650800841</v>
+        <v>484.3048431262658</v>
       </c>
       <c r="P21" t="n">
-        <v>40.25045664277776</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>54.44523725909809</v>
+        <v>54.44523725909806</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>44.43801295009139</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>40.18534987743249</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M24" t="n">
-        <v>38.97568908871588</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N24" t="n">
-        <v>786.2900386086483</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>484.3048431262658</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.32785377080871</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>54.44523725909806</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>44.43801295009139</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>43.97921381771108</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>40.18534987743249</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M27" t="n">
-        <v>38.97568908871588</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N27" t="n">
-        <v>389.1339645064793</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>484.3048431262658</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>54.44523725909806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920621</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>44.43801295009139</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>399.0003643684298</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>40.18534987743249</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M30" t="n">
-        <v>38.97568908871588</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N30" t="n">
-        <v>34.11281395576052</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>449.8917809136656</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>44.43801295009139</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>110.3086367595254</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>40.18534987743249</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N33" t="n">
-        <v>34.11281395576052</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>449.8917809136656</v>
       </c>
       <c r="P33" t="n">
-        <v>40.25045664277768</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>492.158614023672</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743246</v>
       </c>
       <c r="M36" t="n">
-        <v>38.97568908871588</v>
+        <v>38.97568908871585</v>
       </c>
       <c r="N36" t="n">
-        <v>34.11281395576052</v>
+        <v>34.11281395576049</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>484.3048431262658</v>
       </c>
       <c r="P36" t="n">
-        <v>40.25045664277768</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.32785377080871</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>54.44523725909806</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>43.97921381771105</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>40.18534987743244</v>
       </c>
       <c r="M39" t="n">
-        <v>73.82220661895805</v>
+        <v>482.9840557069733</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>40.29647650800826</v>
       </c>
       <c r="P39" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>54.44523725909805</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>711.9513370263797</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>248.9397814165052</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>44.43801295009137</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>43.97921381771105</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>40.18534987743244</v>
       </c>
       <c r="M42" t="n">
-        <v>38.97568908871582</v>
+        <v>482.9840557069733</v>
       </c>
       <c r="N42" t="n">
-        <v>831.117805173896</v>
+        <v>34.11281395576046</v>
       </c>
       <c r="O42" t="n">
         <v>40.29647650800826</v>
@@ -11159,7 +11159,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>54.44523725909805</v>
@@ -11311,16 +11311,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>627.4022719830252</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>248.9397814165033</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>78.69905308228653</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>350.6007893925556</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>484.19371649569</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>38.97568908871582</v>
       </c>
       <c r="N45" t="n">
         <v>34.11281395576046</v>
@@ -11393,10 +11393,10 @@
         <v>40.29647650800826</v>
       </c>
       <c r="P45" t="n">
-        <v>40.25045664277764</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.32785377080868</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>54.44523725909805</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>203.4640111556024</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>269.7152604533979</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.33106491385919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.5163818121864</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>99.25030634643011</v>
       </c>
       <c r="T19" t="n">
-        <v>106.6800458598811</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>269.7152604533954</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>269.7152604533958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>134.6889064755395</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.9969382097301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>269.715260453397</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.20209470631106</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>189.5131657470848</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T25" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>134.6889064755394</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.52964760406897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>269.715260453397</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>15.23634288076076</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.4789175726347</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.5163818121864</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2237432536174</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>155.4832299280378</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>269.7152604533952</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>269.7152604533952</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>83.28201195900191</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T31" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>134.6889064755395</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>189.5131657470858</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>269.7152604533961</v>
       </c>
       <c r="I32" t="n">
-        <v>80.20209470631107</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>141.0010550416446</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.5163818121864</v>
@@ -25095,7 +25095,7 @@
         <v>147.5645421535798</v>
       </c>
       <c r="I34" t="n">
-        <v>113.3329517744758</v>
+        <v>62.19914891991136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>62.86060230522962</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.5645421535798</v>
@@ -25371,16 +25371,16 @@
         <v>279.9668111419812</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>184.4503239421689</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>269.7152604533961</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>50.33106491386022</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5645421535798</v>
+        <v>100.2872876453075</v>
       </c>
       <c r="I40" t="n">
-        <v>113.3329517744758</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.890456040183</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>108.2815805202829</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.99360278463581</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>132.3346188601797</v>
       </c>
     </row>
     <row r="42">
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5163818121864</v>
@@ -25836,13 +25836,13 @@
         <v>81.65448688094153</v>
       </c>
       <c r="S43" t="n">
-        <v>183.4559799036662</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>106.7658953757549</v>
+        <v>236.890456040183</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9668111419812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>95.65112970813503</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>25.8019412381837</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>80.20209470631104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8037420209043</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.3841955395356</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.530876839276033</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>58.74510886472797</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5163818121864</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.5645421535798</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>113.3329517744758</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>81.65448688094153</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.4559799036662</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9668111419812</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>116.846621427523</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697115.3015255418</v>
+        <v>697115.301525542</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711417.822787705</v>
+        <v>711417.8227877052</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711417.8227877051</v>
+        <v>711417.8227877053</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711417.8227877051</v>
+        <v>711417.8227877052</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711417.8227877051</v>
+        <v>711417.8227877053</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711417.8227877052</v>
+        <v>711417.8227877053</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711417.8227877051</v>
+        <v>711417.8227877052</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711417.8227877053</v>
+        <v>711417.8227877052</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695871.5077957577</v>
+        <v>695871.5077957578</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695871.5077957576</v>
+        <v>695871.5077957578</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973707</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973709</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973709</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026409</v>
       </c>
       <c r="F2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
+        <v>445981.1037123046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>445981.1037123044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>445981.1037123044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>445981.1037123043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>445981.1037123044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>445981.1037123045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>445981.1037123044</v>
+      </c>
+      <c r="N2" t="n">
         <v>445981.1037123041</v>
       </c>
-      <c r="H2" t="n">
-        <v>445981.1037123043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>445981.1037123042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>445981.103712304</v>
-      </c>
-      <c r="K2" t="n">
-        <v>445981.1037123043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>445981.1037123043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>445981.1037123043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>445981.1037123043</v>
-      </c>
       <c r="O2" t="n">
-        <v>436297.4264877423</v>
+        <v>436297.4264877422</v>
       </c>
       <c r="P2" t="n">
-        <v>436297.426487742</v>
+        <v>436297.4264877422</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931142</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37974.06827759056</v>
+        <v>37974.06827759082</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="C4" t="n">
         <v>232373.2713033891</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.2713033891</v>
+        <v>232373.271303389</v>
       </c>
       <c r="E4" t="n">
         <v>118556.0943854993</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849757</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26484,22 +26484,22 @@
         <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
-        <v>74150.00929732186</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="H5" t="n">
         <v>74150.00929732189</v>
       </c>
       <c r="I5" t="n">
-        <v>74150.00929732187</v>
+        <v>74150.00929732189</v>
       </c>
       <c r="J5" t="n">
-        <v>74150.00929732187</v>
+        <v>74150.0092973219</v>
       </c>
       <c r="K5" t="n">
         <v>74150.0092973219</v>
       </c>
       <c r="L5" t="n">
-        <v>74150.00929732187</v>
+        <v>74150.00929732189</v>
       </c>
       <c r="M5" t="n">
         <v>74150.0092973219</v>
@@ -26508,10 +26508,10 @@
         <v>74150.00929732189</v>
       </c>
       <c r="O5" t="n">
-        <v>71608.75403086138</v>
+        <v>71608.75403086137</v>
       </c>
       <c r="P5" t="n">
-        <v>71608.75403086135</v>
+        <v>71608.75403086137</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15949.33282236996</v>
+        <v>15949.33282237007</v>
       </c>
       <c r="C6" t="n">
         <v>190904.8427154843</v>
       </c>
       <c r="D6" t="n">
-        <v>190904.8427154842</v>
+        <v>190904.8427154843</v>
       </c>
       <c r="E6" t="n">
-        <v>52921.93377282497</v>
+        <v>52741.35318017597</v>
       </c>
       <c r="F6" t="n">
-        <v>245051.6966722682</v>
+        <v>244871.116079619</v>
       </c>
       <c r="G6" t="n">
-        <v>216320.9139511048</v>
+        <v>216178.6936998213</v>
       </c>
       <c r="H6" t="n">
-        <v>254294.9822286955</v>
+        <v>254152.761977412</v>
       </c>
       <c r="I6" t="n">
-        <v>254294.9822286954</v>
+        <v>254152.761977412</v>
       </c>
       <c r="J6" t="n">
-        <v>117700.1814228002</v>
+        <v>117557.9611715169</v>
       </c>
       <c r="K6" t="n">
-        <v>254294.9822286955</v>
+        <v>254152.761977412</v>
       </c>
       <c r="L6" t="n">
-        <v>254294.9822286956</v>
+        <v>254152.7619774121</v>
       </c>
       <c r="M6" t="n">
-        <v>93936.53172801266</v>
+        <v>93794.31147672929</v>
       </c>
       <c r="N6" t="n">
-        <v>254294.9822286955</v>
+        <v>254152.7619774117</v>
       </c>
       <c r="O6" t="n">
-        <v>249807.066219986</v>
+        <v>249632.5670446203</v>
       </c>
       <c r="P6" t="n">
-        <v>249807.0662199856</v>
+        <v>249632.5670446203</v>
       </c>
     </row>
   </sheetData>
@@ -26752,25 +26752,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871823</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="H3" t="n">
-        <v>34.10751311871823</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="I3" t="n">
-        <v>34.10751311871843</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="J3" t="n">
-        <v>34.10751311871843</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="K3" t="n">
-        <v>34.10751311871843</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="L3" t="n">
-        <v>34.10751311871843</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="M3" t="n">
-        <v>34.10751311871843</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="N3" t="n">
         <v>34.10751311871853</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26831,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>1165.546221132784</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34.10751311871823</v>
+        <v>34.10751311871849</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.79696161941612</v>
+        <v>41.79696161941638</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700257</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627599</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.79696161941612</v>
+        <v>41.79696161941638</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238888</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>97.24773711402537</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>271.9919409714948</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>26.58230776570156</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>7.647276173306054</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27836,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>15.29080151128034</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>317.232156326635</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.39332480391181</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>137.5338199503922</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1371156306280129</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H17" t="n">
-        <v>1.404235452169137</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I17" t="n">
-        <v>5.286150349786472</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J17" t="n">
-        <v>11.63751775501432</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K17" t="n">
-        <v>17.44162239949811</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L17" t="n">
-        <v>21.63787488033016</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M17" t="n">
-        <v>24.07630497651109</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N17" t="n">
-        <v>24.46588476203293</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O17" t="n">
-        <v>23.10244120997562</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P17" t="n">
-        <v>19.71739907884655</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.80694555698084</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R17" t="n">
-        <v>8.613089732436922</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S17" t="n">
-        <v>3.124522432935847</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6002236730741267</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01096925045024103</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0733633301044128</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7085353196926185</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I18" t="n">
-        <v>2.525886584735265</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J18" t="n">
-        <v>6.93122584990858</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K18" t="n">
-        <v>11.84656896690424</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L18" t="n">
-        <v>15.92917393341647</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M18" t="n">
-        <v>18.58859464970143</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N18" t="n">
-        <v>19.08057943798936</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45500249199158</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P18" t="n">
-        <v>14.00917836002599</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.364764734029958</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R18" t="n">
-        <v>4.554961846307315</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S18" t="n">
-        <v>1.362691679790298</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2957057033594532</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004826534875290318</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06150535152555746</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5468384890181386</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I19" t="n">
-        <v>1.84963366224131</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J19" t="n">
-        <v>4.348428352856912</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K19" t="n">
-        <v>7.145803568151129</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L19" t="n">
-        <v>9.144168353172425</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M19" t="n">
-        <v>9.641243421410792</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N19" t="n">
-        <v>9.411996202088268</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O19" t="n">
-        <v>8.693501868357888</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P19" t="n">
-        <v>7.43879269723651</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.150234480926453</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R19" t="n">
-        <v>2.765504260412792</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S19" t="n">
-        <v>1.071870535222669</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2627955928819273</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003354837355939502</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1371156306280129</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H20" t="n">
-        <v>1.404235452169137</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I20" t="n">
-        <v>5.286150349786472</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J20" t="n">
-        <v>11.63751775501432</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K20" t="n">
-        <v>17.44162239949811</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L20" t="n">
-        <v>21.63787488033016</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M20" t="n">
-        <v>24.07630497651109</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N20" t="n">
-        <v>24.46588476203293</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O20" t="n">
-        <v>23.10244120997562</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P20" t="n">
-        <v>19.71739907884655</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.80694555698084</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R20" t="n">
-        <v>8.613089732436922</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S20" t="n">
-        <v>3.124522432935847</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6002236730741267</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01096925045024103</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0733633301044128</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7085353196926185</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I21" t="n">
-        <v>2.525886584735265</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J21" t="n">
-        <v>6.93122584990858</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K21" t="n">
-        <v>11.84656896690424</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L21" t="n">
-        <v>15.92917393341647</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M21" t="n">
-        <v>18.58859464970143</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N21" t="n">
-        <v>19.08057943798936</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O21" t="n">
-        <v>17.45500249199158</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P21" t="n">
-        <v>14.00917836002599</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.364764734029958</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R21" t="n">
-        <v>4.554961846307315</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S21" t="n">
-        <v>1.362691679790298</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2957057033594532</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004826534875290318</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06150535152555746</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5468384890181386</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I22" t="n">
-        <v>1.84963366224131</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J22" t="n">
-        <v>4.348428352856912</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K22" t="n">
-        <v>7.145803568151129</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L22" t="n">
-        <v>9.144168353172425</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M22" t="n">
-        <v>9.641243421410792</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N22" t="n">
-        <v>9.411996202088268</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O22" t="n">
-        <v>8.693501868357888</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P22" t="n">
-        <v>7.43879269723651</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.150234480926453</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R22" t="n">
-        <v>2.765504260412792</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S22" t="n">
-        <v>1.071870535222669</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2627955928819273</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003354837355939502</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1371156306280137</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H23" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I23" t="n">
-        <v>5.286150349786503</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J23" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K23" t="n">
-        <v>17.44162239949821</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L23" t="n">
-        <v>21.63787488033029</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M23" t="n">
-        <v>24.07630497651122</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N23" t="n">
-        <v>24.46588476203307</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O23" t="n">
-        <v>23.10244120997576</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P23" t="n">
-        <v>19.71739907884667</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.80694555698092</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R23" t="n">
-        <v>8.613089732436972</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S23" t="n">
-        <v>3.124522432935865</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6002236730741302</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01096925045024109</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07336333010441323</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7085353196926226</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I24" t="n">
-        <v>2.52588658473528</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J24" t="n">
-        <v>6.931225849908621</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K24" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L24" t="n">
-        <v>15.92917393341657</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M24" t="n">
-        <v>18.58859464970154</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N24" t="n">
-        <v>19.08057943798947</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O24" t="n">
-        <v>17.45500249199169</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P24" t="n">
-        <v>14.00917836002607</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.364764734030013</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R24" t="n">
-        <v>4.554961846307342</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S24" t="n">
-        <v>1.362691679790306</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T24" t="n">
-        <v>0.295705703359455</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004826534875290346</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06150535152555782</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5468384890181417</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I25" t="n">
-        <v>1.849633662241321</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J25" t="n">
-        <v>4.348428352856938</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K25" t="n">
-        <v>7.14580356815117</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L25" t="n">
-        <v>9.144168353172478</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M25" t="n">
-        <v>9.641243421410849</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N25" t="n">
-        <v>9.411996202088323</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O25" t="n">
-        <v>8.69350186835794</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P25" t="n">
-        <v>7.438792697236553</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.150234480926483</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R25" t="n">
-        <v>2.765504260412808</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S25" t="n">
-        <v>1.071870535222675</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2627955928819288</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003354837355939521</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1371156306280137</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H26" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I26" t="n">
-        <v>5.286150349786503</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J26" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K26" t="n">
-        <v>17.44162239949821</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L26" t="n">
-        <v>21.63787488033029</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M26" t="n">
-        <v>24.07630497651122</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N26" t="n">
-        <v>24.46588476203307</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O26" t="n">
-        <v>23.10244120997576</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P26" t="n">
-        <v>19.71739907884667</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.80694555698092</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R26" t="n">
-        <v>8.613089732436972</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S26" t="n">
-        <v>3.124522432935865</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6002236730741302</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01096925045024109</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07336333010441323</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7085353196926226</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52588658473528</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J27" t="n">
-        <v>6.931225849908621</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K27" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L27" t="n">
-        <v>15.92917393341657</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M27" t="n">
-        <v>18.58859464970154</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N27" t="n">
-        <v>19.08057943798947</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O27" t="n">
-        <v>17.45500249199169</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P27" t="n">
-        <v>14.00917836002607</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.364764734030013</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R27" t="n">
-        <v>4.554961846307342</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S27" t="n">
-        <v>1.362691679790306</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T27" t="n">
-        <v>0.295705703359455</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004826534875290346</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06150535152555782</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5468384890181417</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I28" t="n">
-        <v>1.849633662241321</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J28" t="n">
-        <v>4.348428352856938</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K28" t="n">
-        <v>7.14580356815117</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L28" t="n">
-        <v>9.144168353172478</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M28" t="n">
-        <v>9.641243421410849</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N28" t="n">
-        <v>9.411996202088323</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O28" t="n">
-        <v>8.69350186835794</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P28" t="n">
-        <v>7.438792697236553</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.150234480926483</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R28" t="n">
-        <v>2.765504260412808</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S28" t="n">
-        <v>1.071870535222675</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2627955928819288</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003354837355939521</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1371156306280137</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H29" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I29" t="n">
-        <v>5.286150349786503</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J29" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K29" t="n">
-        <v>17.44162239949821</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L29" t="n">
-        <v>21.63787488033029</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M29" t="n">
-        <v>24.07630497651122</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N29" t="n">
-        <v>24.46588476203307</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O29" t="n">
-        <v>23.10244120997576</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P29" t="n">
-        <v>19.71739907884667</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.80694555698092</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R29" t="n">
-        <v>8.613089732436972</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S29" t="n">
-        <v>3.124522432935865</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6002236730741302</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01096925045024109</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07336333010441323</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7085353196926226</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I30" t="n">
-        <v>2.52588658473528</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J30" t="n">
-        <v>6.931225849908621</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K30" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L30" t="n">
-        <v>15.92917393341657</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M30" t="n">
-        <v>18.58859464970154</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N30" t="n">
-        <v>19.08057943798947</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O30" t="n">
-        <v>17.45500249199169</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P30" t="n">
-        <v>14.00917836002607</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.364764734030013</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R30" t="n">
-        <v>4.554961846307342</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S30" t="n">
-        <v>1.362691679790306</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T30" t="n">
-        <v>0.295705703359455</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004826534875290346</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06150535152555782</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5468384890181417</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I31" t="n">
-        <v>1.849633662241321</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J31" t="n">
-        <v>4.348428352856938</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K31" t="n">
-        <v>7.14580356815117</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L31" t="n">
-        <v>9.144168353172478</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M31" t="n">
-        <v>9.641243421410849</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N31" t="n">
-        <v>9.411996202088323</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O31" t="n">
-        <v>8.69350186835794</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P31" t="n">
-        <v>7.438792697236553</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.150234480926483</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R31" t="n">
-        <v>2.765504260412808</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S31" t="n">
-        <v>1.071870535222675</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2627955928819288</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003354837355939521</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1371156306280137</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H32" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I32" t="n">
-        <v>5.286150349786503</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J32" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K32" t="n">
-        <v>17.44162239949821</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L32" t="n">
-        <v>21.63787488033029</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M32" t="n">
-        <v>24.07630497651122</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N32" t="n">
-        <v>24.46588476203307</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O32" t="n">
-        <v>23.10244120997576</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P32" t="n">
-        <v>19.71739907884667</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.80694555698092</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R32" t="n">
-        <v>8.613089732436972</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S32" t="n">
-        <v>3.124522432935865</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6002236730741302</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01096925045024109</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07336333010441323</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7085353196926226</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I33" t="n">
-        <v>2.52588658473528</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J33" t="n">
-        <v>6.931225849908621</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K33" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L33" t="n">
-        <v>15.92917393341657</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M33" t="n">
-        <v>18.58859464970154</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N33" t="n">
-        <v>19.08057943798947</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O33" t="n">
-        <v>17.45500249199169</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P33" t="n">
-        <v>14.00917836002607</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.364764734030013</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R33" t="n">
-        <v>4.554961846307342</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S33" t="n">
-        <v>1.362691679790306</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T33" t="n">
-        <v>0.295705703359455</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004826534875290346</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06150535152555782</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5468384890181417</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I34" t="n">
-        <v>1.849633662241321</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J34" t="n">
-        <v>4.348428352856938</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K34" t="n">
-        <v>7.14580356815117</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L34" t="n">
-        <v>9.144168353172478</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M34" t="n">
-        <v>9.641243421410849</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N34" t="n">
-        <v>9.411996202088323</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O34" t="n">
-        <v>8.69350186835794</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P34" t="n">
-        <v>7.438792697236553</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.150234480926483</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R34" t="n">
-        <v>2.765504260412808</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S34" t="n">
-        <v>1.071870535222675</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2627955928819288</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003354837355939521</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1371156306280137</v>
+        <v>0.1371156306280139</v>
       </c>
       <c r="H35" t="n">
-        <v>1.404235452169146</v>
+        <v>1.404235452169148</v>
       </c>
       <c r="I35" t="n">
-        <v>5.286150349786503</v>
+        <v>5.286150349786512</v>
       </c>
       <c r="J35" t="n">
-        <v>11.63751775501439</v>
+        <v>11.63751775501441</v>
       </c>
       <c r="K35" t="n">
-        <v>17.44162239949821</v>
+        <v>17.44162239949824</v>
       </c>
       <c r="L35" t="n">
-        <v>21.63787488033029</v>
+        <v>21.63787488033032</v>
       </c>
       <c r="M35" t="n">
-        <v>24.07630497651122</v>
+        <v>24.07630497651127</v>
       </c>
       <c r="N35" t="n">
-        <v>24.46588476203307</v>
+        <v>24.46588476203311</v>
       </c>
       <c r="O35" t="n">
-        <v>23.10244120997576</v>
+        <v>23.1024412099758</v>
       </c>
       <c r="P35" t="n">
-        <v>19.71739907884667</v>
+        <v>19.7173990788467</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.80694555698092</v>
+        <v>14.80694555698095</v>
       </c>
       <c r="R35" t="n">
-        <v>8.613089732436972</v>
+        <v>8.613089732436986</v>
       </c>
       <c r="S35" t="n">
-        <v>3.124522432935865</v>
+        <v>3.12452243293587</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6002236730741302</v>
+        <v>0.6002236730741312</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01096925045024109</v>
+        <v>0.01096925045024111</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07336333010441323</v>
+        <v>0.07336333010441336</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7085353196926226</v>
+        <v>0.7085353196926237</v>
       </c>
       <c r="I36" t="n">
-        <v>2.52588658473528</v>
+        <v>2.525886584735284</v>
       </c>
       <c r="J36" t="n">
-        <v>6.931225849908621</v>
+        <v>6.931225849908633</v>
       </c>
       <c r="K36" t="n">
-        <v>11.84656896690431</v>
+        <v>11.84656896690433</v>
       </c>
       <c r="L36" t="n">
-        <v>15.92917393341657</v>
+        <v>15.92917393341659</v>
       </c>
       <c r="M36" t="n">
-        <v>18.58859464970154</v>
+        <v>18.58859464970157</v>
       </c>
       <c r="N36" t="n">
-        <v>19.08057943798947</v>
+        <v>19.08057943798951</v>
       </c>
       <c r="O36" t="n">
-        <v>17.45500249199169</v>
+        <v>17.45500249199171</v>
       </c>
       <c r="P36" t="n">
-        <v>14.00917836002607</v>
+        <v>14.00917836002609</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.364764734030013</v>
+        <v>9.364764734030027</v>
       </c>
       <c r="R36" t="n">
-        <v>4.554961846307342</v>
+        <v>4.55496184630735</v>
       </c>
       <c r="S36" t="n">
-        <v>1.362691679790306</v>
+        <v>1.362691679790309</v>
       </c>
       <c r="T36" t="n">
-        <v>0.295705703359455</v>
+        <v>0.2957057033594555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004826534875290346</v>
+        <v>0.004826534875290354</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06150535152555782</v>
+        <v>0.06150535152555792</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5468384890181417</v>
+        <v>0.5468384890181426</v>
       </c>
       <c r="I37" t="n">
-        <v>1.849633662241321</v>
+        <v>1.849633662241324</v>
       </c>
       <c r="J37" t="n">
-        <v>4.348428352856938</v>
+        <v>4.348428352856945</v>
       </c>
       <c r="K37" t="n">
-        <v>7.14580356815117</v>
+        <v>7.145803568151182</v>
       </c>
       <c r="L37" t="n">
-        <v>9.144168353172478</v>
+        <v>9.144168353172494</v>
       </c>
       <c r="M37" t="n">
-        <v>9.641243421410849</v>
+        <v>9.641243421410865</v>
       </c>
       <c r="N37" t="n">
-        <v>9.411996202088323</v>
+        <v>9.411996202088337</v>
       </c>
       <c r="O37" t="n">
-        <v>8.69350186835794</v>
+        <v>8.693501868357954</v>
       </c>
       <c r="P37" t="n">
-        <v>7.438792697236553</v>
+        <v>7.438792697236566</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.150234480926483</v>
+        <v>5.150234480926492</v>
       </c>
       <c r="R37" t="n">
-        <v>2.765504260412808</v>
+        <v>2.765504260412813</v>
       </c>
       <c r="S37" t="n">
-        <v>1.071870535222675</v>
+        <v>1.071870535222677</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2627955928819288</v>
+        <v>0.2627955928819292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003354837355939521</v>
+        <v>0.003354837355939527</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967378</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700259</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700259</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700259</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237791</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700259</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700259</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>367.8628411009271</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35731,19 +35731,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>268.3905192375944</v>
+        <v>268.3905192375945</v>
       </c>
       <c r="K17" t="n">
-        <v>561.0370780651946</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L17" t="n">
-        <v>741.4271676199645</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M17" t="n">
-        <v>808.2364978974747</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N17" t="n">
-        <v>785.2547904576066</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O17" t="n">
-        <v>673.2346194090715</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P17" t="n">
-        <v>554.2191141486966</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q17" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R17" t="n">
-        <v>49.57939850977512</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>201.6916880343866</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L18" t="n">
-        <v>683.6950041549197</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.02332610379223</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>728.5227707201676</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.7430118895687</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R18" t="n">
-        <v>34.41306221260014</v>
+        <v>34.41306221260017</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.57322573185744</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K19" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L19" t="n">
-        <v>271.6664918683851</v>
+        <v>271.6664918683852</v>
       </c>
       <c r="M19" t="n">
         <v>301.8271590178687</v>
@@ -36056,13 +36056,13 @@
         <v>293.0875339740583</v>
       </c>
       <c r="O19" t="n">
-        <v>270.8759365415641</v>
+        <v>270.8759365415642</v>
       </c>
       <c r="P19" t="n">
-        <v>215.1917626463399</v>
+        <v>215.19176264634</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.34016357437174</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>268.3905192375944</v>
+        <v>268.3905192375945</v>
       </c>
       <c r="K20" t="n">
-        <v>561.0370780651946</v>
+        <v>561.0370780651947</v>
       </c>
       <c r="L20" t="n">
-        <v>741.4271676199645</v>
+        <v>741.4271676199646</v>
       </c>
       <c r="M20" t="n">
-        <v>808.2364978974747</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N20" t="n">
-        <v>785.2547904576066</v>
+        <v>785.2547904576068</v>
       </c>
       <c r="O20" t="n">
-        <v>673.2346194090715</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P20" t="n">
-        <v>554.2191141486966</v>
+        <v>554.2191141486967</v>
       </c>
       <c r="Q20" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R20" t="n">
-        <v>49.57939850977512</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>201.6916880343866</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K21" t="n">
-        <v>472.2569288308423</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L21" t="n">
-        <v>683.6950041549197</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>341.7022302057179</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q21" t="n">
-        <v>362.7430118895687</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.57322573185744</v>
+        <v>18.57322573185747</v>
       </c>
       <c r="K22" t="n">
         <v>163.2592659138461</v>
       </c>
       <c r="L22" t="n">
-        <v>271.6664918683851</v>
+        <v>271.6664918683852</v>
       </c>
       <c r="M22" t="n">
         <v>301.8271590178687</v>
@@ -36293,13 +36293,13 @@
         <v>293.0875339740583</v>
       </c>
       <c r="O22" t="n">
-        <v>270.8759365415641</v>
+        <v>270.8759365415642</v>
       </c>
       <c r="P22" t="n">
-        <v>215.1917626463399</v>
+        <v>215.19176264634</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.34016357437174</v>
+        <v>71.34016357437177</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M23" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N23" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O23" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P23" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q23" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R23" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>752.1772246528877</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>728.5227707201677</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="P24" t="n">
         <v>581.3888677423797</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M26" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N26" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O26" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P26" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q26" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R26" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>355.0211505507187</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>728.5227707201677</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="P27" t="n">
         <v>581.3888677423797</v>
@@ -36697,7 +36697,7 @@
         <v>362.7430118895688</v>
       </c>
       <c r="R27" t="n">
-        <v>34.41306221260017</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M29" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N29" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O29" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P29" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q29" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R29" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977562</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K30" t="n">
-        <v>355.0211505507187</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>728.5227707201677</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P30" t="n">
         <v>581.3888677423797</v>
@@ -37077,22 +37077,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M32" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N32" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O32" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P32" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q32" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R32" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K33" t="n">
-        <v>66.32942294181431</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>728.5227707201677</v>
+        <v>409.5953044056573</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q33" t="n">
         <v>362.7430118895688</v>
@@ -37314,22 +37314,22 @@
         <v>741.4271676199646</v>
       </c>
       <c r="M35" t="n">
-        <v>808.2364978974748</v>
+        <v>808.2364978974749</v>
       </c>
       <c r="N35" t="n">
         <v>785.2547904576068</v>
       </c>
       <c r="O35" t="n">
-        <v>673.2346194090716</v>
+        <v>673.2346194090717</v>
       </c>
       <c r="P35" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q35" t="n">
-        <v>339.2120029259627</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R35" t="n">
-        <v>49.57939850977517</v>
+        <v>49.57939850977519</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K36" t="n">
-        <v>448.179400205961</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L36" t="n">
-        <v>683.6950041549198</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>728.5227707201677</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>34.84651753024222</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="N39" t="n">
-        <v>901.5635007628561</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>728.5227707201678</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q39" t="n">
         <v>362.7430118895688</v>
       </c>
       <c r="R39" t="n">
-        <v>34.41306221260018</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>741.4271676199647</v>
       </c>
       <c r="M41" t="n">
-        <v>808.2364978974749</v>
+        <v>642.7374175458456</v>
       </c>
       <c r="N41" t="n">
         <v>785.2547904576069</v>
@@ -37800,7 +37800,7 @@
         <v>554.2191141486967</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.7129225743341</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R41" t="n">
         <v>49.5793985097752</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>201.6916880343867</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L42" t="n">
-        <v>683.6950041549198</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="N42" t="n">
-        <v>797.0049912181356</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>581.3888677423797</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>785.2547904576069</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2346194090717</v>
+        <v>557.314937567218</v>
       </c>
       <c r="P44" t="n">
         <v>554.2191141486967</v>
       </c>
       <c r="Q44" t="n">
-        <v>173.7129225743323</v>
+        <v>339.2120029259628</v>
       </c>
       <c r="R44" t="n">
-        <v>49.5793985097752</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>201.6916880343867</v>
       </c>
       <c r="K45" t="n">
-        <v>306.6215755748445</v>
+        <v>472.2569288308424</v>
       </c>
       <c r="L45" t="n">
-        <v>683.6950041549198</v>
+        <v>444.0083666182575</v>
       </c>
       <c r="M45" t="n">
-        <v>870.080595351284</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>581.3888677423797</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>362.7430118895688</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
